--- a/1/5/Indicadores de coyuntura 2003 a 2021 - Trimestral.xlsx
+++ b/1/5/Indicadores de coyuntura 2003 a 2021 - Trimestral.xlsx
@@ -969,7 +969,7 @@
         <v>79.5</v>
       </c>
       <c r="C26">
-        <v>80.8</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="D26">
         <v>-0.8</v>
@@ -1084,7 +1084,7 @@
         <v>89.59999999999999</v>
       </c>
       <c r="D34">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1252,7 +1252,7 @@
         <v>101.1</v>
       </c>
       <c r="D46">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1305,7 +1305,7 @@
         <v>101.3</v>
       </c>
       <c r="C50">
-        <v>102.9</v>
+        <v>103</v>
       </c>
       <c r="D50">
         <v>0.3</v>
@@ -1389,10 +1389,10 @@
         <v>102</v>
       </c>
       <c r="C56">
-        <v>105.8</v>
+        <v>105.7</v>
       </c>
       <c r="D56">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1403,7 +1403,7 @@
         <v>111</v>
       </c>
       <c r="C57">
-        <v>106.1</v>
+        <v>106</v>
       </c>
       <c r="D57">
         <v>0.3</v>
@@ -1434,7 +1434,7 @@
         <v>106.3</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1445,10 +1445,10 @@
         <v>103.9</v>
       </c>
       <c r="C60">
-        <v>108.2</v>
+        <v>108.1</v>
       </c>
       <c r="D60">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1487,7 +1487,7 @@
         <v>112</v>
       </c>
       <c r="C63">
-        <v>111.3</v>
+        <v>111.4</v>
       </c>
       <c r="D63">
         <v>0.9</v>
@@ -1501,10 +1501,10 @@
         <v>106.4</v>
       </c>
       <c r="C64">
-        <v>111</v>
+        <v>110.9</v>
       </c>
       <c r="D64">
-        <v>-0.3</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1518,7 +1518,7 @@
         <v>112.2</v>
       </c>
       <c r="D65">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1529,10 +1529,10 @@
         <v>109.7</v>
       </c>
       <c r="C66">
-        <v>111.9</v>
+        <v>112</v>
       </c>
       <c r="D66">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1543,10 +1543,10 @@
         <v>113.7</v>
       </c>
       <c r="C67">
-        <v>113.2</v>
+        <v>113.3</v>
       </c>
       <c r="D67">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1557,10 +1557,10 @@
         <v>110</v>
       </c>
       <c r="C68">
-        <v>114</v>
+        <v>113.9</v>
       </c>
       <c r="D68">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1571,7 +1571,7 @@
         <v>115.3</v>
       </c>
       <c r="C69">
-        <v>109.7</v>
+        <v>109.6</v>
       </c>
       <c r="D69">
         <v>-3.8</v>
@@ -1599,7 +1599,7 @@
         <v>97.5</v>
       </c>
       <c r="C71">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="D71">
         <v>-12.6</v>
@@ -1613,10 +1613,10 @@
         <v>100.1</v>
       </c>
       <c r="C72">
-        <v>102.9</v>
+        <v>102.8</v>
       </c>
       <c r="D72">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1627,10 +1627,10 @@
         <v>115.3</v>
       </c>
       <c r="C73">
-        <v>109.6</v>
+        <v>109.5</v>
       </c>
       <c r="D73">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1638,13 +1638,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>110.3</v>
+        <v>110.5</v>
       </c>
       <c r="C74">
-        <v>113.2</v>
+        <v>113.3</v>
       </c>
       <c r="D74">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1652,13 +1652,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>114.4</v>
+        <v>115.1</v>
       </c>
       <c r="C75">
-        <v>113.9</v>
+        <v>114.6</v>
       </c>
       <c r="D75">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/1/5/Indicadores de coyuntura 2003 a 2021 - Trimestral.xlsx
+++ b/1/5/Indicadores de coyuntura 2003 a 2021 - Trimestral.xlsx
@@ -930,7 +930,7 @@
         <v>83</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -969,7 +969,7 @@
         <v>79.5</v>
       </c>
       <c r="C26">
-        <v>80.90000000000001</v>
+        <v>80.8</v>
       </c>
       <c r="D26">
         <v>-0.8</v>
@@ -1014,7 +1014,7 @@
         <v>82.3</v>
       </c>
       <c r="D29">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1056,7 +1056,7 @@
         <v>87.40000000000001</v>
       </c>
       <c r="D32">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1070,7 +1070,7 @@
         <v>88.5</v>
       </c>
       <c r="D33">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1179,7 +1179,7 @@
         <v>101.7</v>
       </c>
       <c r="C41">
-        <v>97.3</v>
+        <v>97.2</v>
       </c>
       <c r="D41">
         <v>0.7</v>
@@ -1294,7 +1294,7 @@
         <v>102.7</v>
       </c>
       <c r="D49">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1305,7 +1305,7 @@
         <v>101.3</v>
       </c>
       <c r="C50">
-        <v>103</v>
+        <v>102.9</v>
       </c>
       <c r="D50">
         <v>0.3</v>
@@ -1350,7 +1350,7 @@
         <v>104.9</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1389,7 +1389,7 @@
         <v>102</v>
       </c>
       <c r="C56">
-        <v>105.7</v>
+        <v>105.8</v>
       </c>
       <c r="D56">
         <v>0.3</v>
@@ -1406,7 +1406,7 @@
         <v>106</v>
       </c>
       <c r="D57">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1431,7 +1431,7 @@
         <v>106.8</v>
       </c>
       <c r="C59">
-        <v>106.3</v>
+        <v>106.4</v>
       </c>
       <c r="D59">
         <v>1.1</v>
@@ -1462,7 +1462,7 @@
         <v>109.1</v>
       </c>
       <c r="D61">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1476,7 +1476,7 @@
         <v>110.4</v>
       </c>
       <c r="D62">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1487,10 +1487,10 @@
         <v>112</v>
       </c>
       <c r="C63">
-        <v>111.4</v>
+        <v>111.5</v>
       </c>
       <c r="D63">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1501,10 +1501,10 @@
         <v>106.4</v>
       </c>
       <c r="C64">
-        <v>110.9</v>
+        <v>111</v>
       </c>
       <c r="D64">
-        <v>-0.4</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1515,10 +1515,10 @@
         <v>117.6</v>
       </c>
       <c r="C65">
-        <v>112.2</v>
+        <v>112.1</v>
       </c>
       <c r="D65">
-        <v>1.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1529,7 +1529,7 @@
         <v>109.7</v>
       </c>
       <c r="C66">
-        <v>112</v>
+        <v>111.9</v>
       </c>
       <c r="D66">
         <v>-0.2</v>
@@ -1543,10 +1543,10 @@
         <v>113.7</v>
       </c>
       <c r="C67">
-        <v>113.3</v>
+        <v>113.4</v>
       </c>
       <c r="D67">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1557,10 +1557,10 @@
         <v>110</v>
       </c>
       <c r="C68">
-        <v>113.9</v>
+        <v>114</v>
       </c>
       <c r="D68">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1571,10 +1571,10 @@
         <v>115.3</v>
       </c>
       <c r="C69">
-        <v>109.6</v>
+        <v>109.5</v>
       </c>
       <c r="D69">
-        <v>-3.8</v>
+        <v>-3.9</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1588,7 +1588,7 @@
         <v>111.8</v>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1599,10 +1599,10 @@
         <v>97.5</v>
       </c>
       <c r="C71">
-        <v>97.8</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="D71">
-        <v>-12.6</v>
+        <v>-12.4</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1616,7 +1616,7 @@
         <v>102.8</v>
       </c>
       <c r="D72">
-        <v>5.1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1627,10 +1627,10 @@
         <v>115.3</v>
       </c>
       <c r="C73">
-        <v>109.5</v>
+        <v>109.3</v>
       </c>
       <c r="D73">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1644,7 +1644,7 @@
         <v>113.3</v>
       </c>
       <c r="D74">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1655,10 +1655,10 @@
         <v>115.1</v>
       </c>
       <c r="C75">
-        <v>114.6</v>
+        <v>114.9</v>
       </c>
       <c r="D75">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/1/5/Indicadores de coyuntura 2003 a 2021 - Trimestral.xlsx
+++ b/1/5/Indicadores de coyuntura 2003 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>Serie</t>
   </si>
@@ -248,6 +248,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -605,7 +608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -930,7 +933,7 @@
         <v>83</v>
       </c>
       <c r="D23">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -969,7 +972,7 @@
         <v>79.5</v>
       </c>
       <c r="C26">
-        <v>80.8</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="D26">
         <v>-0.8</v>
@@ -1028,7 +1031,7 @@
         <v>82.59999999999999</v>
       </c>
       <c r="D30">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1056,7 +1059,7 @@
         <v>87.40000000000001</v>
       </c>
       <c r="D32">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1322,7 +1325,7 @@
         <v>104.3</v>
       </c>
       <c r="D51">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1375,10 +1378,10 @@
         <v>106.3</v>
       </c>
       <c r="C55">
-        <v>105.4</v>
+        <v>105.5</v>
       </c>
       <c r="D55">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1417,7 +1420,7 @@
         <v>103.9</v>
       </c>
       <c r="C58">
-        <v>105.2</v>
+        <v>105.1</v>
       </c>
       <c r="D58">
         <v>-0.8</v>
@@ -1434,7 +1437,7 @@
         <v>106.4</v>
       </c>
       <c r="D59">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1445,7 +1448,7 @@
         <v>103.9</v>
       </c>
       <c r="C60">
-        <v>108.1</v>
+        <v>108.2</v>
       </c>
       <c r="D60">
         <v>1.7</v>
@@ -1459,10 +1462,10 @@
         <v>114.1</v>
       </c>
       <c r="C61">
-        <v>109.1</v>
+        <v>109</v>
       </c>
       <c r="D61">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1473,7 +1476,7 @@
         <v>108.5</v>
       </c>
       <c r="C62">
-        <v>110.4</v>
+        <v>110.3</v>
       </c>
       <c r="D62">
         <v>1.2</v>
@@ -1487,10 +1490,10 @@
         <v>112</v>
       </c>
       <c r="C63">
-        <v>111.5</v>
+        <v>111.6</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1515,10 +1518,10 @@
         <v>117.6</v>
       </c>
       <c r="C65">
-        <v>112.1</v>
+        <v>112</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1529,10 +1532,10 @@
         <v>109.7</v>
       </c>
       <c r="C66">
-        <v>111.9</v>
+        <v>111.8</v>
       </c>
       <c r="D66">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1543,10 +1546,10 @@
         <v>113.7</v>
       </c>
       <c r="C67">
-        <v>113.4</v>
+        <v>113.6</v>
       </c>
       <c r="D67">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1557,10 +1560,10 @@
         <v>110</v>
       </c>
       <c r="C68">
-        <v>114</v>
+        <v>114.1</v>
       </c>
       <c r="D68">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1571,10 +1574,10 @@
         <v>115.3</v>
       </c>
       <c r="C69">
-        <v>109.5</v>
+        <v>109.3</v>
       </c>
       <c r="D69">
-        <v>-3.9</v>
+        <v>-4.2</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1585,10 +1588,10 @@
         <v>109.9</v>
       </c>
       <c r="C70">
-        <v>111.8</v>
+        <v>111.7</v>
       </c>
       <c r="D70">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1599,10 +1602,10 @@
         <v>97.5</v>
       </c>
       <c r="C71">
-        <v>97.90000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="D71">
-        <v>-12.4</v>
+        <v>-12.2</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1613,10 +1616,10 @@
         <v>100.1</v>
       </c>
       <c r="C72">
-        <v>102.8</v>
+        <v>102.9</v>
       </c>
       <c r="D72">
-        <v>5</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1627,10 +1630,10 @@
         <v>115.3</v>
       </c>
       <c r="C73">
-        <v>109.3</v>
+        <v>109.1</v>
       </c>
       <c r="D73">
-        <v>6.3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1641,10 +1644,10 @@
         <v>110.5</v>
       </c>
       <c r="C74">
-        <v>113.3</v>
+        <v>113.2</v>
       </c>
       <c r="D74">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1655,10 +1658,24 @@
         <v>115.1</v>
       </c>
       <c r="C75">
-        <v>114.9</v>
+        <v>115.1</v>
       </c>
       <c r="D75">
-        <v>1.4</v>
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76">
+        <v>117.7</v>
+      </c>
+      <c r="C76">
+        <v>121.2</v>
+      </c>
+      <c r="D76">
+        <v>5.3</v>
       </c>
     </row>
   </sheetData>
